--- a/xlsx/网络观察基金会与维基百科_intext.xlsx
+++ b/xlsx/网络观察基金会与维基百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t>网络观察基金会与维基百科</t>
   </si>
@@ -29,7 +29,7 @@
     <t>网络观察基金会</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_网络观察基金会与维基百科</t>
+    <t>政策_政策_维基百科_网络观察基金会与维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85</t>
   </si>
   <si>
-    <t>兒童色情</t>
+    <t>儿童色情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%AE%98%E6%96%B9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>半官方機構</t>
+    <t>半官方机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E5%8F%B0_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>第四台 (英國)</t>
+    <t>第四台 (英国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_Wikipedia</t>
@@ -287,31 +287,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -407,21 +407,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -431,49 +428,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國維基媒體協會</t>
+    <t>德国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -491,55 +488,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -551,25 +548,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -623,25 +620,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -671,13 +665,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%87%C2%B7%E9%98%BF%E8%8E%AB%E6%96%AF</t>
@@ -689,25 +683,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -719,19 +713,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -809,19 +803,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -839,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -959,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -1001,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -1061,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/Nonciclopedia</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
@@ -3550,7 +3544,7 @@
         <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3576,10 +3570,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3605,10 +3599,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3634,10 +3628,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3663,10 +3657,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3692,10 +3686,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3721,10 +3715,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3750,10 +3744,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3779,10 +3773,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3808,10 +3802,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3837,10 +3831,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3866,10 +3860,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3895,10 +3889,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3924,10 +3918,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3953,10 +3947,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3982,10 +3976,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4011,10 +4005,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4040,10 +4034,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4069,10 +4063,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4098,10 +4092,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4127,10 +4121,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4156,10 +4150,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4185,10 +4179,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4214,10 +4208,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4243,10 +4237,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4272,10 +4266,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4301,10 +4295,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4330,10 +4324,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4359,10 +4353,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4388,10 +4382,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4417,10 +4411,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4446,10 +4440,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4475,10 +4469,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4504,10 +4498,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4533,10 +4527,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4562,10 +4556,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4591,10 +4585,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4620,10 +4614,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4649,10 +4643,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4678,10 +4672,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4707,10 +4701,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4736,10 +4730,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4765,10 +4759,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4794,10 +4788,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4823,10 +4817,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4852,10 +4846,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4881,10 +4875,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4910,10 +4904,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4939,10 +4933,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4968,10 +4962,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4997,10 +4991,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5026,10 +5020,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5055,10 +5049,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5084,10 +5078,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5113,10 +5107,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5142,10 +5136,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5171,10 +5165,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5200,10 +5194,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5229,10 +5223,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5258,10 +5252,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5287,10 +5281,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5316,10 +5310,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5345,10 +5339,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5374,10 +5368,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5403,10 +5397,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5432,10 +5426,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5461,10 +5455,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5490,10 +5484,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5519,10 +5513,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5548,10 +5542,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5577,10 +5571,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5606,10 +5600,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5635,10 +5629,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5664,10 +5658,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5693,10 +5687,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5722,10 +5716,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5751,10 +5745,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5780,10 +5774,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5809,10 +5803,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5838,10 +5832,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5867,10 +5861,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5896,10 +5890,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5925,10 +5919,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5954,10 +5948,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5983,10 +5977,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6012,10 +6006,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6041,10 +6035,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6070,10 +6064,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6099,10 +6093,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6128,10 +6122,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6157,10 +6151,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6186,10 +6180,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6215,10 +6209,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>79</v>
@@ -6244,10 +6238,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6273,10 +6267,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6302,10 +6296,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6331,10 +6325,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6360,10 +6354,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6389,10 +6383,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6418,10 +6412,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6447,10 +6441,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6476,10 +6470,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6505,10 +6499,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6534,10 +6528,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6563,10 +6557,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6592,10 +6586,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6621,10 +6615,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6650,10 +6644,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6679,10 +6673,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6708,10 +6702,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6737,10 +6731,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6766,10 +6760,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6795,10 +6789,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6824,10 +6818,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6853,10 +6847,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6882,10 +6876,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6911,10 +6905,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6940,10 +6934,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6969,10 +6963,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6998,10 +6992,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7027,10 +7021,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7056,10 +7050,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7085,10 +7079,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7114,10 +7108,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7143,10 +7137,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7172,10 +7166,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7201,10 +7195,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7230,10 +7224,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7259,10 +7253,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7288,10 +7282,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7317,10 +7311,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7346,10 +7340,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7375,10 +7369,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7404,10 +7398,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7433,10 +7427,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7462,10 +7456,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7491,10 +7485,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7520,10 +7514,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F204" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7549,10 +7543,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7578,10 +7572,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F206" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7607,10 +7601,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7636,10 +7630,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
